--- a/实验/点到点加密通讯/表.xlsx
+++ b/实验/点到点加密通讯/表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Internet-Security-ExpCode\实验\点到点加密通讯\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BC13B5-CDD8-45B5-8DD5-A7702F4148CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,78 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>传输即时消息报文协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收方用户地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送方用户地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用发送方私钥加密后压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时消息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASH256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收方公钥加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASH校验码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +114,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +423,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/实验/点到点加密通讯/表.xlsx
+++ b/实验/点到点加密通讯/表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Internet-Security-ExpCode\实验\点到点加密通讯\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BC13B5-CDD8-45B5-8DD5-A7702F4148CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ABE2AB-0791-4D1B-998B-C9B31B66E21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>传输即时消息报文协议</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用发送方私钥加密后压缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>即时消息内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,54 @@
   </si>
   <si>
     <t>HASH校验码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输文件协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HASH校验码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收方用户地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送方用户地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DES密钥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送方私钥签名，接收方公钥加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用发送方私钥加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip压缩后用随机DES密钥加密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -129,20 +173,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D8"/>
+      <selection activeCell="C14" sqref="A11:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -437,75 +566,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
